--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,22 @@
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" t="n">
+        <v>244890</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1990.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,22 @@
         <v>1990.98</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>342</v>
+      </c>
+      <c r="C4" t="n">
+        <v>667440</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1951.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,22 @@
         <v>1951.58</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>407</v>
+      </c>
+      <c r="C5" t="n">
+        <v>871650</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2141.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,22 @@
         <v>2141.65</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>885710</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1908.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,22 @@
         <v>1908.86</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>330</v>
+      </c>
+      <c r="C7" t="n">
+        <v>771130</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2336.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,22 @@
         <v>2336.76</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>358</v>
+      </c>
+      <c r="C8" t="n">
+        <v>742870</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2075.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,22 @@
         <v>2075.06</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>489</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1097630</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2244.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,22 @@
         <v>2244.64</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>302</v>
+      </c>
+      <c r="C10" t="n">
+        <v>678020</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2245.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,22 @@
         <v>2245.1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>489</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1132730</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2316.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,22 @@
         <v>2316.42</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>710</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1595750</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2247.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,22 @@
         <v>2247.54</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>536</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1116830</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2083.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,22 @@
         <v>2083.64</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>431</v>
+      </c>
+      <c r="C14" t="n">
+        <v>974090</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2260.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,22 @@
         <v>2260.07</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>476</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1126400</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2366.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,22 @@
         <v>2366.39</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>862010</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2155.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,6 +693,22 @@
         <v>2155.03</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>497</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1043420</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2099.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,22 @@
         <v>2099.44</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>473</v>
+      </c>
+      <c r="C18" t="n">
+        <v>978156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2067.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,6 +725,22 @@
         <v>2067.98</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>651</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1416171</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2175.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,6 +741,22 @@
         <v>2175.38</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>461</v>
+      </c>
+      <c r="C20" t="n">
+        <v>968873</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2101.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,22 @@
         <v>2101.68</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>382</v>
+      </c>
+      <c r="C21" t="n">
+        <v>868347</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2273.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,22 @@
         <v>2273.16</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>725598</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1904.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,6 +789,22 @@
         <v>1904.46</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>538</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1029675</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1913.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,22 @@
         <v>1913.89</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>402</v>
+      </c>
+      <c r="C24" t="n">
+        <v>860467</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2140.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +821,22 @@
         <v>2140.47</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>574</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1091067</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1900.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,22 @@
         <v>1900.81</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>674</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1358048</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2014.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,6 +853,22 @@
         <v>2014.91</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>543</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1183435</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2179.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,22 @@
         <v>2179.44</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>501</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1130485</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2256.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,22 @@
         <v>2256.46</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>465</v>
+      </c>
+      <c r="C29" t="n">
+        <v>975854</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2098.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,6 +901,22 @@
         <v>2098.61</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>437</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1021707</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,6 +917,22 @@
         <v>2338</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>614</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1227970</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1999.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,22 @@
         <v>1999.95</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>601</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1192986</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +949,22 @@
         <v>1985</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>753</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1478945</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1964.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,22 @@
         <v>1964.07</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>804</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1536532</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1911.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +981,22 @@
         <v>1911.11</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>609</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1283246</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2107.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +997,22 @@
         <v>2107.14</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>693</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1335922</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1927.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,22 @@
         <v>1927.74</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>773</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1564084</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2023.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +1029,22 @@
         <v>2023.39</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>894</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1711715</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1914.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,22 @@
         <v>1914.67</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>798</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1507204</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1888.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,22 @@
         <v>1888.73</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2178647</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1884.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,6 +1077,22 @@
         <v>1884.64</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>713</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1353482</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1898.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,6 +1093,22 @@
         <v>1898.29</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>907</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1814466</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2000.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,22 @@
         <v>2000.51</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>898</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1746206</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1944.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,6 +1125,22 @@
         <v>1944.55</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2105379</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2048.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,6 +1141,22 @@
         <v>2048.03</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3350181</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2009.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1157,22 @@
         <v>2009.71</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2645877</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1989.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,6 +1173,22 @@
         <v>1989.38</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3747912</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1987.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,22 @@
         <v>1987.23</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>982</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1953482</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1989.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,6 +1205,22 @@
         <v>1989.29</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>618</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1245028</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2014.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,6 +1221,22 @@
         <v>2014.61</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>588</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1087349</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1849.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,22 @@
         <v>1849.23</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>793</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1525023</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1923.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,6 +1253,22 @@
         <v>1923.11</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>268</v>
+      </c>
+      <c r="C52" t="n">
+        <v>535017</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1996.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,6 +1269,22 @@
         <v>1996.33</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>490</v>
+      </c>
+      <c r="C53" t="n">
+        <v>975891</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1991.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,6 +1285,22 @@
         <v>1991.61</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>799</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1517143</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1898.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1301,6 +1301,22 @@
         <v>1898.8</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>527</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1207420</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2291.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,6 +1317,22 @@
         <v>2291.12</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>420</v>
+      </c>
+      <c r="C56" t="n">
+        <v>784330</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1867.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,6 +1333,22 @@
         <v>1867.45</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>475</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1081110</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2276.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,6 +1349,22 @@
         <v>2276.02</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>258</v>
+      </c>
+      <c r="C58" t="n">
+        <v>468100</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1814.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,6 +1365,22 @@
         <v>1814.34</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>404</v>
+      </c>
+      <c r="C59" t="n">
+        <v>852640</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2110.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1381,22 @@
         <v>2110.5</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>494</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1389540</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2812.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,6 +1397,22 @@
         <v>2812.83</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>548</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1048090</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1912.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,6 +1413,22 @@
         <v>1912.57</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>504</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1018030</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2019.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1429,6 +1429,22 @@
         <v>2019.9</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>481</v>
+      </c>
+      <c r="C63" t="n">
+        <v>812300</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1688.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,6 +1445,22 @@
         <v>1688.77</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>361</v>
+      </c>
+      <c r="C64" t="n">
+        <v>723500</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2004.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,6 +1461,22 @@
         <v>2004.16</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>300</v>
+      </c>
+      <c r="C65" t="n">
+        <v>598960</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1996.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +1477,22 @@
         <v>1996.53</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>204</v>
+      </c>
+      <c r="C66" t="n">
+        <v>426850</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2092.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,6 +1493,22 @@
         <v>2092.4</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>327</v>
+      </c>
+      <c r="C67" t="n">
+        <v>637760</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1950.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,6 +1509,22 @@
         <v>1950.34</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>311</v>
+      </c>
+      <c r="C68" t="n">
+        <v>580280</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1865.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,6 +1525,22 @@
         <v>1865.85</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>229</v>
+      </c>
+      <c r="C69" t="n">
+        <v>495720</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2164.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,6 +1541,22 @@
         <v>2164.72</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>306</v>
+      </c>
+      <c r="C70" t="n">
+        <v>529300</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1729.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1557,22 @@
         <v>1729.74</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>133</v>
+      </c>
+      <c r="C71" t="n">
+        <v>298280</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2242.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,6 +1573,22 @@
         <v>2242.71</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>183</v>
+      </c>
+      <c r="C72" t="n">
+        <v>374220</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2044.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,22 @@
         <v>2044.92</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>263</v>
+      </c>
+      <c r="C73" t="n">
+        <v>526680</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2002.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,6 +1605,22 @@
         <v>2002.59</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>308</v>
+      </c>
+      <c r="C74" t="n">
+        <v>598300</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1942.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,6 +1621,22 @@
         <v>1942.53</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>493</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1105570</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2242.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,6 +1637,22 @@
         <v>2242.54</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>358</v>
+      </c>
+      <c r="C76" t="n">
+        <v>751490</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2099.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,6 +1653,22 @@
         <v>2099.13</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>374</v>
+      </c>
+      <c r="C77" t="n">
+        <v>700020</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1871.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,6 +1669,22 @@
         <v>1871.71</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>246</v>
+      </c>
+      <c r="C78" t="n">
+        <v>486980</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1979.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,6 +1685,22 @@
         <v>1979.59</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>323</v>
+      </c>
+      <c r="C79" t="n">
+        <v>608580</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1884.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,6 +1701,22 @@
         <v>1884.15</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>539</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1063011</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1972.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,6 +1717,22 @@
         <v>1972.19</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>608</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1213580</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1996.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1733,6 +1733,22 @@
         <v>1996.02</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>567</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1062331</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1873.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,6 +1749,22 @@
         <v>1873.6</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>513</v>
+      </c>
+      <c r="C83" t="n">
+        <v>961965</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1875.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,6 +1765,22 @@
         <v>1875.18</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>583</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1073261</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1840.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1781,6 +1781,22 @@
         <v>1840.93</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>612</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1124801</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1837.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,6 +1797,22 @@
         <v>1837.91</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>320</v>
+      </c>
+      <c r="C86" t="n">
+        <v>729491</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2279.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,6 +1813,22 @@
         <v>2279.66</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>396</v>
+      </c>
+      <c r="C87" t="n">
+        <v>868051</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2192.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,6 +1829,22 @@
         <v>2192.05</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>449</v>
+      </c>
+      <c r="C88" t="n">
+        <v>774330</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1724.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,6 +1845,22 @@
         <v>1724.57</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>525</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1006230</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1916.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,6 +1861,22 @@
         <v>1916.63</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>497</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1004272</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2020.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1877,6 +1877,22 @@
         <v>2020.67</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>287</v>
+      </c>
+      <c r="C91" t="n">
+        <v>568570</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1981.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1893,6 +1893,22 @@
         <v>1981.08</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>340</v>
+      </c>
+      <c r="C92" t="n">
+        <v>601440</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1768.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1909,6 +1909,22 @@
         <v>1768.94</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>247</v>
+      </c>
+      <c r="C93" t="n">
+        <v>451021</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1826</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1925,6 +1925,22 @@
         <v>1826</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>306</v>
+      </c>
+      <c r="C94" t="n">
+        <v>576260</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1883.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,6 +1941,22 @@
         <v>1883.2</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>469</v>
+      </c>
+      <c r="C95" t="n">
+        <v>968210</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2064.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,6 +1957,22 @@
         <v>2064.41</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>547</v>
+      </c>
+      <c r="C96" t="n">
+        <v>989600</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1809.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,6 +1973,22 @@
         <v>1809.14</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>509</v>
+      </c>
+      <c r="C97" t="n">
+        <v>960120</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1886.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +1989,22 @@
         <v>1886.29</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>314</v>
+      </c>
+      <c r="C98" t="n">
+        <v>640570</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2040.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +422,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Total rugs sold</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Total sales amount (SEK)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Average order value (SEK)</t>
         </is>
@@ -2003,6 +1991,22 @@
       </c>
       <c r="D98" t="n">
         <v>2040.03</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>342</v>
+      </c>
+      <c r="C99" t="n">
+        <v>612110</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1789.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,6 +2009,22 @@
         <v>1789.8</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>419</v>
+      </c>
+      <c r="C100" t="n">
+        <v>789540</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1884.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2025,6 +2025,22 @@
         <v>1884.34</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>308</v>
+      </c>
+      <c r="C101" t="n">
+        <v>686710</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2229.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2041,6 +2041,22 @@
         <v>2229.58</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>351</v>
+      </c>
+      <c r="C102" t="n">
+        <v>674090</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1920.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,6 +2057,22 @@
         <v>1920.48</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>533</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1003710</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1883.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,6 +2073,22 @@
         <v>1883.13</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>404</v>
+      </c>
+      <c r="C104" t="n">
+        <v>860253</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2129.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2089,6 +2089,22 @@
         <v>2129.34</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>354</v>
+      </c>
+      <c r="C105" t="n">
+        <v>645040</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1822.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,6 +2105,22 @@
         <v>1822.15</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>363</v>
+      </c>
+      <c r="C106" t="n">
+        <v>700370</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1929.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,6 +2121,22 @@
         <v>1929.39</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>280</v>
+      </c>
+      <c r="C107" t="n">
+        <v>569373</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2033.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,6 +2137,22 @@
         <v>2033.47</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>277</v>
+      </c>
+      <c r="C108" t="n">
+        <v>564130</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2036.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,6 +2153,22 @@
         <v>2036.57</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>514</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1028211</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2000.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,6 +2169,22 @@
         <v>2000.41</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>609</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1190630</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1955.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2185,6 +2185,22 @@
         <v>1955.06</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>549</v>
+      </c>
+      <c r="C111" t="n">
+        <v>991580</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1806.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,6 +2201,22 @@
         <v>1806.16</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>462</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1096700</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2373.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,6 +2217,22 @@
         <v>2373.81</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>404</v>
+      </c>
+      <c r="C113" t="n">
+        <v>715190</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1770.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,6 +2233,22 @@
         <v>1770.27</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>340</v>
+      </c>
+      <c r="C114" t="n">
+        <v>634360</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1865.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,6 +2249,22 @@
         <v>1865.76</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>260</v>
+      </c>
+      <c r="C115" t="n">
+        <v>560670</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2156.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,6 +2265,22 @@
         <v>2156.42</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>452</v>
+      </c>
+      <c r="C116" t="n">
+        <v>870910</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1926.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,6 +2281,22 @@
         <v>1926.79</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>562</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1111720</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1978.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,6 +2297,22 @@
         <v>1978.15</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>384</v>
+      </c>
+      <c r="C118" t="n">
+        <v>771410</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2008.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,6 +2313,22 @@
         <v>2008.88</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>401</v>
+      </c>
+      <c r="C119" t="n">
+        <v>808380</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2015.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,6 +2329,22 @@
         <v>2015.91</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>329</v>
+      </c>
+      <c r="C120" t="n">
+        <v>659530</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2004.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2345,6 +2345,22 @@
         <v>2004.65</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>294</v>
+      </c>
+      <c r="C121" t="n">
+        <v>551120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1874.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,6 +2361,22 @@
         <v>1874.56</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>387</v>
+      </c>
+      <c r="C122" t="n">
+        <v>614490</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1587.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2377,6 +2377,22 @@
         <v>1587.83</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>376</v>
+      </c>
+      <c r="C123" t="n">
+        <v>738770</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1964.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2393,6 +2393,22 @@
         <v>1964.81</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>537</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1086520</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2023.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,6 +2409,22 @@
         <v>2023.31</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>590</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1272790</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2157.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,6 +2425,22 @@
         <v>2157.27</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>256</v>
+      </c>
+      <c r="C126" t="n">
+        <v>463550</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1810.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2441,6 +2441,22 @@
         <v>1810.74</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>291</v>
+      </c>
+      <c r="C127" t="n">
+        <v>585750</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2012.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2457,6 +2457,22 @@
         <v>2012.89</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>321</v>
+      </c>
+      <c r="C128" t="n">
+        <v>618660</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1927.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2473,6 +2473,22 @@
         <v>1927.29</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>453</v>
+      </c>
+      <c r="C129" t="n">
+        <v>869050</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1918.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,6 +2489,22 @@
         <v>1918.43</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>400</v>
+      </c>
+      <c r="C130" t="n">
+        <v>768220</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1920.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,6 +2505,22 @@
         <v>1920.55</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>537</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1062240</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1978.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2521,6 +2521,22 @@
         <v>1978.1</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>390</v>
+      </c>
+      <c r="C132" t="n">
+        <v>852660</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2186.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,6 +2537,22 @@
         <v>2186.31</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>375</v>
+      </c>
+      <c r="C133" t="n">
+        <v>762900</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2034.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2553,6 +2553,22 @@
         <v>2034.4</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>252</v>
+      </c>
+      <c r="C134" t="n">
+        <v>480680</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1907.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2569,6 +2569,22 @@
         <v>1907.46</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>434</v>
+      </c>
+      <c r="C135" t="n">
+        <v>823570</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1897.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2585,6 +2585,22 @@
         <v>1897.63</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>337</v>
+      </c>
+      <c r="C136" t="n">
+        <v>711690</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2111.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/rugvista_daily_sales.xlsx
+++ b/data/rugvista_daily_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2601,6 +2601,22 @@
         <v>2111.84</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>445</v>
+      </c>
+      <c r="C137" t="n">
+        <v>891920</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2004.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
